--- a/dataExp/Address_Total.xlsx
+++ b/dataExp/Address_Total.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnjst\Documents\UiPath\RPA2\dataExp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8537E1-2DB1-48BC-B9C2-2C8BA4D9B971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD791DBF-EA59-43DC-97E0-DD877CEE81C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{13C6ED33-D740-4FFD-9DE7-F7A4942F2962}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{9D54D662-20E6-4C1D-A0AF-CBF6EC39BABE}"/>
   </bookViews>
   <sheets>
     <sheet name="일치여부확인" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,103 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="63">
+  <si>
+    <t>부산광역시 동래구 사직로 80</t>
+  </si>
+  <si>
+    <t>47863</t>
+  </si>
+  <si>
+    <t>서울특별시 강남구 도곡로 510</t>
+  </si>
+  <si>
+    <t>06282</t>
+  </si>
+  <si>
+    <t>부산광역시 연제구 종합운동장로 7</t>
+  </si>
+  <si>
+    <t>47500</t>
+  </si>
+  <si>
+    <t>서울특별시 강동구 천호대로 1128</t>
+  </si>
+  <si>
+    <t>서울특별시 중랑구 겸재로 252-1</t>
+  </si>
+  <si>
+    <t>서울특별시 금천구 서부샛길 572</t>
+  </si>
+  <si>
+    <t>부산광역시 동구 범일로53번길 25</t>
+  </si>
+  <si>
+    <t>부산광역시 중구 구덕로 13-1</t>
+  </si>
+  <si>
+    <t>서울특별시 마포구 도화2안길 4</t>
+  </si>
+  <si>
+    <t>서울특별시 성북구 북악산로 746</t>
+  </si>
+  <si>
+    <t>서울특별시 강서구 화곡로25길 2</t>
+  </si>
+  <si>
+    <t>서울특별시 서초구 효령로74길 15</t>
+  </si>
+  <si>
+    <t>서울특별시 광진구 뚝섬로50길 7-6</t>
+  </si>
+  <si>
+    <t>부산광역시 남구 고동골로97번길 78</t>
+  </si>
+  <si>
+    <t>서울특별시 동작구 양녕로22바길 36</t>
+  </si>
+  <si>
+    <t>부산광역시 해운대구 센텀동로 25</t>
+  </si>
+  <si>
+    <t>서울특별시 송파구 백제고분로18길 16-23</t>
+  </si>
+  <si>
+    <t>서울특별시 중랑구 양원역로 53</t>
+  </si>
+  <si>
+    <t>서울특별시 서대문구 연세로 8-1</t>
+  </si>
+  <si>
+    <t>부산광역시 해운대구 우동1로 62</t>
+  </si>
+  <si>
+    <t>부산광역시 북구 구포시장4길 4</t>
+  </si>
+  <si>
+    <t>서울특별시 구로구 도림로12길 5</t>
+  </si>
+  <si>
+    <t>서울특별시 중랑구 용마산로 523</t>
+  </si>
+  <si>
+    <t>서울특별시 관악구 남부순환로 1369</t>
+  </si>
+  <si>
+    <t>서울특별시 중랑구 사가정로51길 43</t>
+  </si>
+  <si>
+    <t>서울특별시 강동구 천호옛길 84</t>
+  </si>
+  <si>
+    <t>부산광역시 금정구 서동로 197</t>
+  </si>
+  <si>
+    <t>부산광역시 해운대구 재반로 141</t>
+  </si>
+  <si>
+    <t>서울특별시 서대문구 충정로 8</t>
+  </si>
   <si>
     <t>상가업소번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,97 +149,85 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>부산광역시 동래구 사직로 80</t>
-  </si>
-  <si>
     <t>일치</t>
   </si>
   <si>
-    <t>서울특별시 강남구 도곡로 510</t>
-  </si>
-  <si>
-    <t>부산광역시 연제구 종합운동장로 7</t>
-  </si>
-  <si>
-    <t>서울특별시 강동구 천호대로 1128</t>
-  </si>
-  <si>
-    <t>서울특별시 중랑구 겸재로 252-1</t>
-  </si>
-  <si>
-    <t>불일치</t>
-  </si>
-  <si>
-    <t>서울특별시 금천구 서부샛길 572</t>
-  </si>
-  <si>
-    <t>부산광역시 동구 범일로53번길 25</t>
-  </si>
-  <si>
-    <t>부산광역시 중구 구덕로 13-1</t>
-  </si>
-  <si>
-    <t>서울특별시 마포구 도화2안길 4</t>
-  </si>
-  <si>
-    <t>서울특별시 성북구 북악산로 746</t>
-  </si>
-  <si>
-    <t>서울특별시 강서구 화곡로25길 2</t>
-  </si>
-  <si>
-    <t>서울특별시 서초구 효령로74길 15</t>
-  </si>
-  <si>
-    <t>서울특별시 광진구 뚝섬로50길 7-6</t>
-  </si>
-  <si>
-    <t>부산광역시 남구 고동골로97번길 78</t>
-  </si>
-  <si>
-    <t>서울특별시 동작구 양녕로22바길 36</t>
-  </si>
-  <si>
-    <t>부산광역시 해운대구 센텀동로 25</t>
-  </si>
-  <si>
-    <t>서울특별시 송파구 백제고분로18길 16-23</t>
-  </si>
-  <si>
-    <t>서울특별시 중랑구 양원역로 53</t>
-  </si>
-  <si>
-    <t>서울특별시 서대문구 연세로 8-1</t>
-  </si>
-  <si>
-    <t>부산광역시 해운대구 우동1로 62</t>
-  </si>
-  <si>
-    <t>부산광역시 북구 구포시장4길 4</t>
-  </si>
-  <si>
-    <t>서울특별시 구로구 도림로12길 5</t>
-  </si>
-  <si>
-    <t>서울특별시 중랑구 용마산로 523</t>
-  </si>
-  <si>
-    <t>서울특별시 관악구 남부순환로 1369</t>
-  </si>
-  <si>
-    <t>서울특별시 중랑구 사가정로51길 43</t>
-  </si>
-  <si>
-    <t>서울특별시 강동구 천호옛길 84</t>
-  </si>
-  <si>
-    <t>부산광역시 금정구 서동로 197</t>
-  </si>
-  <si>
-    <t>부산광역시 해운대구 재반로 141</t>
-  </si>
-  <si>
-    <t>서울특별시 서대문구 충정로 8</t>
+    <t>05373</t>
+  </si>
+  <si>
+    <t>02200</t>
+  </si>
+  <si>
+    <t>08505</t>
+  </si>
+  <si>
+    <t>48737</t>
+  </si>
+  <si>
+    <t>48984</t>
+  </si>
+  <si>
+    <t>04172</t>
+  </si>
+  <si>
+    <t>02826</t>
+  </si>
+  <si>
+    <t>07714</t>
+  </si>
+  <si>
+    <t>06727</t>
+  </si>
+  <si>
+    <t>05099</t>
+  </si>
+  <si>
+    <t>48408</t>
+  </si>
+  <si>
+    <t>07036</t>
+  </si>
+  <si>
+    <t>48059</t>
+  </si>
+  <si>
+    <t>05576</t>
+  </si>
+  <si>
+    <t>02061</t>
+  </si>
+  <si>
+    <t>03779</t>
+  </si>
+  <si>
+    <t>48087</t>
+  </si>
+  <si>
+    <t>46581</t>
+  </si>
+  <si>
+    <t>08372</t>
+  </si>
+  <si>
+    <t>02165</t>
+  </si>
+  <si>
+    <t>08768</t>
+  </si>
+  <si>
+    <t>02221</t>
+  </si>
+  <si>
+    <t>05384</t>
+  </si>
+  <si>
+    <t>46321</t>
+  </si>
+  <si>
+    <t>48051</t>
+  </si>
+  <si>
+    <t>03742</t>
   </si>
 </sst>
 </file>
@@ -189,8 +273,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -506,25 +593,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9188E197-EFF1-4540-8284-C4961302F77B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6E9C15-8F94-434B-9A67-4521741CCC2C}">
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="19.69921875" customWidth="1"/>
+    <col min="2" max="2" width="35.5" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
@@ -532,13 +624,13 @@
         <v>15502838</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>47863</v>
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
@@ -546,13 +638,13 @@
         <v>15514817</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
-        <v>6282</v>
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
@@ -560,13 +652,13 @@
         <v>15521403</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>47500</v>
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -574,13 +666,13 @@
         <v>15525799</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>5373</v>
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -588,13 +680,13 @@
         <v>15538554</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6">
-        <v>2200</v>
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
@@ -602,13 +694,13 @@
         <v>15492731</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7">
-        <v>8505</v>
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
@@ -616,13 +708,13 @@
         <v>15523849</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8">
-        <v>48737</v>
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
@@ -630,13 +722,13 @@
         <v>15558465</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9">
-        <v>48984</v>
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
@@ -644,13 +736,13 @@
         <v>15483627</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10">
-        <v>4172</v>
+        <v>11</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
@@ -658,13 +750,13 @@
         <v>15498431</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11">
-        <v>2826</v>
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
@@ -672,13 +764,13 @@
         <v>15485917</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12">
-        <v>7714</v>
+        <v>13</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
@@ -686,13 +778,13 @@
         <v>15537857</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13">
-        <v>6727</v>
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
@@ -700,13 +792,13 @@
         <v>15549684</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14">
-        <v>5099</v>
+        <v>15</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
@@ -714,13 +806,13 @@
         <v>15504292</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15">
-        <v>48408</v>
+        <v>16</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
@@ -728,13 +820,13 @@
         <v>15491775</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16">
-        <v>7036</v>
+        <v>17</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
@@ -742,13 +834,13 @@
         <v>15512642</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17">
-        <v>48059</v>
+        <v>18</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
@@ -756,13 +848,13 @@
         <v>15492856</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18">
-        <v>5576</v>
+        <v>19</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
@@ -770,13 +862,13 @@
         <v>15538974</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19">
-        <v>2061</v>
+        <v>20</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="D19" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
@@ -784,13 +876,13 @@
         <v>15422013</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20">
-        <v>3779</v>
+        <v>21</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D20" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
@@ -798,13 +890,13 @@
         <v>15479492</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21">
-        <v>48087</v>
+        <v>22</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
@@ -812,13 +904,13 @@
         <v>15509875</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22">
-        <v>46581</v>
+        <v>23</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
@@ -826,13 +918,13 @@
         <v>15494999</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23">
-        <v>8372</v>
+        <v>24</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="D23" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
@@ -840,13 +932,13 @@
         <v>15500781</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24">
-        <v>2165</v>
+        <v>25</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
@@ -854,13 +946,13 @@
         <v>15525591</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25">
-        <v>8768</v>
+        <v>26</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
@@ -868,13 +960,13 @@
         <v>15550855</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26">
-        <v>2221</v>
+        <v>27</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="D26" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
@@ -882,13 +974,13 @@
         <v>15554419</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27">
-        <v>5384</v>
+        <v>28</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="D27" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
@@ -896,13 +988,13 @@
         <v>15505515</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28">
-        <v>46321</v>
+        <v>29</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="D28" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
@@ -910,13 +1002,13 @@
         <v>15526009</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29">
-        <v>48051</v>
+        <v>30</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="D29" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
@@ -924,13 +1016,13 @@
         <v>15505841</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30">
-        <v>3742</v>
+        <v>31</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -940,7 +1032,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97086404-7178-4048-AA59-87CD89042D66}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA3A8D6-F178-4518-B76A-A921C5E67283}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
